--- a/无锁链表.xlsx
+++ b/无锁链表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>未获取任何锁</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>头结点-删除-删除前一个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于非原子操作，比如获取两个锁，拿到第二个锁后要进行一些判断以确认对象有效性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U35"/>
+  <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,10 +665,10 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
@@ -766,73 +770,78 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S21" s="6" t="s">
+    <row r="20" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S22" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="19:21" x14ac:dyDescent="0.2">
-      <c r="S22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="19:21" x14ac:dyDescent="0.2">
       <c r="S31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="19:21" x14ac:dyDescent="0.2">
+      <c r="S32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S33" s="6" t="s">
+    <row r="34" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S34" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S34" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S36" t="s">
         <v>23</v>
       </c>
     </row>

--- a/无锁链表.xlsx
+++ b/无锁链表.xlsx
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8"/>
@@ -666,9 +666,9 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
